--- a/risultati_MOD.xlsx
+++ b/risultati_MOD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azrae\Documents\GitHub\ml_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E560C6AE-06B8-49E1-8DC9-49D369EE0B10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E3F0E3-2677-4DAA-A83B-6C93FFB5FA3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{CAACC4D6-DA32-4164-BFC5-6CF09A1CA525}"/>
   </bookViews>
@@ -30,12 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
   <si>
     <t>Eta</t>
-  </si>
-  <si>
-    <t>NaN</t>
   </si>
   <si>
     <t>SSE Standar deviation</t>
@@ -69,6 +66,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,7 +203,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -216,15 +217,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -234,12 +229,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -389,7 +400,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,7</c:v>
+                  <c:v>0,700</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -519,7 +530,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,1</c:v>
+                  <c:v>0,100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -649,7 +660,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,05</c:v>
+                  <c:v>0,050</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -779,7 +790,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,01</c:v>
+                  <c:v>0,010</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1499,7 +1510,2649 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="127000">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Sigmoid-Sigmoid</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,700</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="127000">
+                        <a:schemeClr val="bg1"/>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$D$30:$D$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$E$50:$E$53</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$E$50:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>139.65548200000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.476371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>148.081918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141.31642299999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF2B-4E51-B938-57183BDAA981}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="127000">
+                        <a:schemeClr val="bg1"/>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$D$30:$D$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$E$54:$E$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$E$54:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>110.66469499999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.62774899999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110.96065900000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.106742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF2B-4E51-B938-57183BDAA981}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="127000">
+                        <a:schemeClr val="bg1"/>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$D$30:$D$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$E$59:$E$62</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$E$59:$E$62</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>135.30624599999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.794364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.44970600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.53282400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BF2B-4E51-B938-57183BDAA981}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="127000">
+                        <a:schemeClr val="bg1"/>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$D$30:$D$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$E$63:$E$66</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$E$63:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>195.79201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193.36367100000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188.65430900000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186.59906100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BF2B-4E51-B938-57183BDAA981}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,008</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="127000">
+                        <a:schemeClr val="bg1"/>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$D$30:$D$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$E$67:$E$70</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$E$67:$E$70</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>196.61878300000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194.949736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190.90259399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>189.02844200000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BF2B-4E51-B938-57183BDAA981}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,004</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="127000">
+                        <a:schemeClr val="bg1"/>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$D$30:$D$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$E$70:$E$74</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$E$70:$E$73</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>189.02844200000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199.192486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198.08525499999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>196.075951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BF2B-4E51-B938-57183BDAA981}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="943439344"/>
+        <c:axId val="982606992"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="943439344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="127000">
+                        <a:schemeClr val="bg1"/>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Hidden Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47095500956065561"/>
+              <c:y val="0.86663739408689056"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:glow rad="127000">
+                      <a:schemeClr val="bg1"/>
+                    </a:glow>
+                  </a:effectLst>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="127000">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="982606992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="982606992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="127000">
+                        <a:schemeClr val="bg1"/>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>SSE Standard Deviation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:glow rad="127000">
+                      <a:schemeClr val="bg1"/>
+                    </a:glow>
+                  </a:effectLst>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="127000">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943439344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:effectLst>
+            <a:glow rad="127000">
+              <a:schemeClr val="bg1"/>
+            </a:glow>
+          </a:effectLst>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="127000">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>tanH-ReLU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,700</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="127000">
+                        <a:schemeClr val="bg1"/>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A25-4754-A71F-78C20EA4BB3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="127000">
+                        <a:schemeClr val="bg1"/>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A25-4754-A71F-78C20EA4BB3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="127000">
+                        <a:schemeClr val="bg1"/>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$10:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>160.453653</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.19170800000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2A25-4754-A71F-78C20EA4BB3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="127000">
+                        <a:schemeClr val="bg1"/>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>115.13883199999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.633223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155.605774</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>194.776363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2A25-4754-A71F-78C20EA4BB3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,008</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="127000">
+                        <a:schemeClr val="bg1"/>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$18:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>115.922513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119.862752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>148.566103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>174.33818299999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2A25-4754-A71F-78C20EA4BB3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,004</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="127000">
+                        <a:schemeClr val="bg1"/>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$D$30:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$22:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>124.940039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121.15647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.964619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147.04007100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2A25-4754-A71F-78C20EA4BB3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="943439344"/>
+        <c:axId val="982606992"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="943439344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="127000">
+                        <a:schemeClr val="bg1"/>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Hidden Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47095500956065561"/>
+              <c:y val="0.86663739408689056"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:glow rad="127000">
+                      <a:schemeClr val="bg1"/>
+                    </a:glow>
+                  </a:effectLst>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="127000">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="982606992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="982606992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="127000">
+                        <a:schemeClr val="bg1"/>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>SSE Standard Deviation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:glow rad="127000">
+                      <a:schemeClr val="bg1"/>
+                    </a:glow>
+                  </a:effectLst>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="127000">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943439344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:effectLst>
+            <a:glow rad="127000">
+              <a:schemeClr val="bg1"/>
+            </a:glow>
+          </a:effectLst>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2033,20 +4686,1008 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>6802</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166006</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2066,6 +5707,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D6C71C0-26E6-4D70-A3F2-6514FEAF4A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D6F0C07-70FC-49D4-BEAD-903FECE76D08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2355,17 +6072,17 @@
   </sheetPr>
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L47" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12" style="21" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="5" max="5" width="40.25" customWidth="1"/>
     <col min="6" max="6" width="8.25" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
@@ -2376,146 +6093,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="24" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="4">
+      <c r="A2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="20">
         <v>0.7</v>
       </c>
       <c r="D2" s="4">
         <v>200</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
+      <c r="E2" s="5">
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="4">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="20">
         <v>0.7</v>
       </c>
       <c r="D3" s="4">
         <v>300</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>1</v>
+      <c r="E3" s="5">
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="4">
+      <c r="A4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="20">
         <v>0.7</v>
       </c>
       <c r="D4" s="4">
         <v>600</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>1</v>
+      <c r="E4" s="5">
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="4">
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="20">
         <v>0.7</v>
       </c>
       <c r="D5" s="4">
         <v>800</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>1</v>
+      <c r="E5" s="5">
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="4">
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="20">
         <v>0.1</v>
       </c>
       <c r="D6" s="4">
         <v>200</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>1</v>
+      <c r="E6" s="5">
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="4">
+      <c r="A7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="20">
         <v>0.1</v>
       </c>
       <c r="D7" s="4">
         <v>300</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>1</v>
+      <c r="E7" s="5">
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="4">
+      <c r="A8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="20">
         <v>0.1</v>
       </c>
       <c r="D8" s="4">
         <v>600</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>1</v>
+      <c r="E8" s="5">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="4">
+      <c r="A9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="20">
         <v>0.1</v>
       </c>
       <c r="D9" s="4">
         <v>800</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>1</v>
+      <c r="E9" s="5">
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10">
+      <c r="A10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="21">
         <v>0.05</v>
       </c>
       <c r="D10">
@@ -2526,11 +6243,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11">
+      <c r="A11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="21">
         <v>0.05</v>
       </c>
       <c r="D11">
@@ -2541,41 +6258,41 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="4">
+      <c r="A12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="20">
         <v>0.05</v>
       </c>
       <c r="D12" s="4">
         <v>600</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>1</v>
+      <c r="E12" s="5">
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="4">
+      <c r="A13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="20">
         <v>0.05</v>
       </c>
       <c r="D13" s="4">
         <v>800</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>1</v>
+      <c r="E13" s="5">
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14">
+      <c r="A14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="21">
         <v>0.01</v>
       </c>
       <c r="D14">
@@ -2586,11 +6303,11 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15">
+      <c r="A15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="21">
         <v>0.01</v>
       </c>
       <c r="D15">
@@ -2601,11 +6318,11 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16">
+      <c r="A16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="21">
         <v>0.01</v>
       </c>
       <c r="D16">
@@ -2616,11 +6333,11 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17">
+      <c r="A17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="21">
         <v>0.01</v>
       </c>
       <c r="D17">
@@ -2631,11 +6348,11 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18">
+      <c r="A18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D18">
@@ -2646,11 +6363,11 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19">
+      <c r="A19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D19">
@@ -2661,11 +6378,11 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20">
+      <c r="A20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D20">
@@ -2676,11 +6393,11 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21">
+      <c r="A21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D21">
@@ -2691,11 +6408,11 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22">
+      <c r="A22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D22">
@@ -2706,11 +6423,11 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23">
+      <c r="A23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D23">
@@ -2721,11 +6438,11 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24">
+      <c r="A24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D24">
@@ -2736,11 +6453,11 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25">
+      <c r="A25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D25">
@@ -2751,11 +6468,11 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26">
+      <c r="A26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="21">
         <v>0.7</v>
       </c>
       <c r="D26">
@@ -2766,11 +6483,11 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27">
+      <c r="A27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="21">
         <v>0.7</v>
       </c>
       <c r="D27">
@@ -2781,11 +6498,11 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28">
+      <c r="A28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="21">
         <v>0.7</v>
       </c>
       <c r="D28">
@@ -2796,11 +6513,11 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29">
+      <c r="A29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="21">
         <v>0.7</v>
       </c>
       <c r="D29">
@@ -2811,11 +6528,11 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30">
+      <c r="A30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="21">
         <v>0.1</v>
       </c>
       <c r="D30">
@@ -2826,11 +6543,11 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31">
+      <c r="A31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="21">
         <v>0.1</v>
       </c>
       <c r="D31">
@@ -2841,11 +6558,11 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32">
+      <c r="A32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="21">
         <v>0.1</v>
       </c>
       <c r="D32">
@@ -2856,11 +6573,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33">
+      <c r="A33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="21">
         <v>0.1</v>
       </c>
       <c r="D33">
@@ -2871,11 +6588,11 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34">
+      <c r="A34" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="21">
         <v>0.05</v>
       </c>
       <c r="D34">
@@ -2886,11 +6603,11 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35">
+      <c r="A35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="21">
         <v>0.05</v>
       </c>
       <c r="D35">
@@ -2901,11 +6618,11 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36">
+      <c r="A36" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="21">
         <v>0.05</v>
       </c>
       <c r="D36">
@@ -2916,11 +6633,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37">
+      <c r="A37" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="21">
         <v>0.05</v>
       </c>
       <c r="D37">
@@ -2931,11 +6648,11 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38">
+      <c r="A38" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="21">
         <v>0.01</v>
       </c>
       <c r="D38">
@@ -2946,11 +6663,11 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39">
+      <c r="A39" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="21">
         <v>0.01</v>
       </c>
       <c r="D39">
@@ -2961,11 +6678,11 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40">
+      <c r="A40" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="21">
         <v>0.01</v>
       </c>
       <c r="D40">
@@ -2976,11 +6693,11 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41">
+      <c r="A41" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="21">
         <v>0.01</v>
       </c>
       <c r="D41">
@@ -2989,14 +6706,14 @@
       <c r="E41" s="1">
         <v>358.75308999999999</v>
       </c>
-      <c r="I41" s="18"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42">
+      <c r="A42" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D42">
@@ -3007,11 +6724,11 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43">
+      <c r="A43" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D43">
@@ -3022,11 +6739,11 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44">
+      <c r="A44" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D44">
@@ -3037,11 +6754,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45">
+      <c r="A45" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D45">
@@ -3052,11 +6769,11 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46">
+      <c r="A46" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D46">
@@ -3067,11 +6784,11 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47">
+      <c r="A47" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D47">
@@ -3082,11 +6799,11 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48">
+      <c r="A48" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D48">
@@ -3097,11 +6814,11 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49">
+      <c r="A49" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D49">
@@ -3112,26 +6829,26 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="16">
+      <c r="A50" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="22">
         <v>0.7</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="9">
         <v>200</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="10">
         <v>139.65548200000001</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51">
+      <c r="A51" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="21">
         <v>0.7</v>
       </c>
       <c r="D51">
@@ -3142,11 +6859,11 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52">
+      <c r="A52" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="21">
         <v>0.7</v>
       </c>
       <c r="D52">
@@ -3157,11 +6874,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53">
+      <c r="A53" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="21">
         <v>0.7</v>
       </c>
       <c r="D53">
@@ -3172,11 +6889,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54">
+      <c r="A54" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="21">
         <v>0.1</v>
       </c>
       <c r="D54">
@@ -3187,11 +6904,11 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="6">
+      <c r="A55" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="23">
         <v>0.1</v>
       </c>
       <c r="D55" s="6">
@@ -3201,15 +6918,15 @@
         <v>110.62774899999999</v>
       </c>
       <c r="F55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56">
+      <c r="A56" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="21">
         <v>0.1</v>
       </c>
       <c r="D56">
@@ -3220,11 +6937,11 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57">
+      <c r="A57" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="16"/>
+      <c r="C57" s="21">
         <v>0.1</v>
       </c>
       <c r="D57">
@@ -3235,11 +6952,11 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58">
+      <c r="A58" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="21">
         <v>0.1</v>
       </c>
       <c r="D58">
@@ -3250,11 +6967,11 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59">
+      <c r="A59" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="16"/>
+      <c r="C59" s="21">
         <v>0.05</v>
       </c>
       <c r="D59">
@@ -3265,11 +6982,11 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="10"/>
-      <c r="C60">
+      <c r="A60" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="21">
         <v>0.05</v>
       </c>
       <c r="D60">
@@ -3280,11 +6997,11 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="10"/>
-      <c r="C61">
+      <c r="A61" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="21">
         <v>0.05</v>
       </c>
       <c r="D61">
@@ -3295,11 +7012,11 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="10"/>
-      <c r="C62">
+      <c r="A62" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="21">
         <v>0.05</v>
       </c>
       <c r="D62">
@@ -3310,11 +7027,11 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="10"/>
-      <c r="C63">
+      <c r="A63" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="16"/>
+      <c r="C63" s="21">
         <v>0.01</v>
       </c>
       <c r="D63">
@@ -3325,11 +7042,11 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="10"/>
-      <c r="C64">
+      <c r="A64" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="21">
         <v>0.01</v>
       </c>
       <c r="D64">
@@ -3340,11 +7057,11 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="10"/>
-      <c r="C65">
+      <c r="A65" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="21">
         <v>0.01</v>
       </c>
       <c r="D65">
@@ -3355,11 +7072,11 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66">
+      <c r="A66" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" s="21">
         <v>0.01</v>
       </c>
       <c r="D66">
@@ -3370,11 +7087,11 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="10"/>
-      <c r="C67">
+      <c r="A67" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="16"/>
+      <c r="C67" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D67">
@@ -3385,11 +7102,11 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="10"/>
-      <c r="C68">
+      <c r="A68" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="16"/>
+      <c r="C68" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D68">
@@ -3400,11 +7117,11 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="10"/>
-      <c r="C69">
+      <c r="A69" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="16"/>
+      <c r="C69" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D69">
@@ -3415,11 +7132,11 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="C70">
+      <c r="A70" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D70">
@@ -3430,11 +7147,11 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="10"/>
-      <c r="C71">
+      <c r="A71" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D71">
@@ -3445,11 +7162,11 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="10"/>
-      <c r="C72">
+      <c r="A72" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D72">
@@ -3460,11 +7177,11 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="10"/>
-      <c r="C73">
+      <c r="A73" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="16"/>
+      <c r="C73" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D73">
@@ -3475,11 +7192,11 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="10"/>
-      <c r="C74">
+      <c r="A74" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D74">
@@ -3494,19 +7211,79 @@
     </row>
     <row r="76" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76" s="13"/>
       <c r="E76" s="3"/>
     </row>
     <row r="79" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B79" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A2:B2"/>
@@ -3523,66 +7300,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A50:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
